--- a/medicine/Psychotrope/Weissbierpils/Weissbierpils.xlsx
+++ b/medicine/Psychotrope/Weissbierpils/Weissbierpils.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La weissbierpils, weißbierpils ou weipi est un type de bière récent originaire de Bavière en Allemagne. Il s'agit d'un style hybride tentant de mêler deux types de bières fort différents : les pils (à l'orge seul et à fermentation basse) et les weissbier (à l'orge et au froment et à fermentation haute). Le mélange se déroule en cellier avec 53 % de weissbier et 47 % de pils. La bière ainsi obtenue à une teneur en alcool modérée (5 %), des arômes fruités et une amertume pleine.
 Inventée en 2005[réf. nécessaire], elle est brassée par une douzaine de brasseries sous licence.
